--- a/medicine/Sexualité et sexologie/The_Sessions_(film)/The_Sessions_(film).xlsx
+++ b/medicine/Sexualité et sexologie/The_Sessions_(film)/The_Sessions_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Sessions est un film dramatique réalisé par Ben Lewin, sorti en 2012. Tiré du roman On Seeing a Sex Surrogate de Mark O'Brien, il a été présenté au Festival de Sundance 2012, où il a remporté le Prix du public américain de la fiction, et Helen Hunt est nommée à l'Oscar de la meilleure actrice dans un second rôle en 2013.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark fait paraître une petite annonce : « Homme, 38 ans, cherche femme pour relation amoureuse, et plus si affinités. En revanche paralysé... Amatrices de promenades sur la plage s'abstenir... ».
 Le film retrace l'histoire vraie du poète et journaliste Mark O'Brien. Victime d'une attaque de poliomyélite dans l'enfance, il passe la majeure partie de son temps allongé dans un poumon d'acier. Sa rencontre avec une assistante sexuelle va lui permettre d'aimer.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : The Sessions
 Titre provisoire : The Surrogate
@@ -593,10 +609,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Hawkes (VFB : David Pion) : Mark O'Brien
-Helen Hunt (VFB : Colette Sodoyez)[1] : Cheryl Cohen Greene
+Helen Hunt (VFB : Colette Sodoyez) : Cheryl Cohen Greene
 William H. Macy  (VFB : Franck Dacquin) : Père Brendan
 Moon Bloodgood (VFB : Cathy Boquet) : Vera
 Annika Marks (VFB : Maia Baran) : Amanda
@@ -641,16 +659,55 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Sundance 2012 : Prix du public américain de la fiction
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival de Sundance 2012 : Prix du public américain de la fiction
 2012 : Nevada Film Critics Society Awards : Meilleure actrice pour Helen Hunt et meilleur acteur pour John Hawkes
 2012 : St. Louis Film Critics Association Awards : Meilleure actrice dans un second rôle pour Helen Hunt
 2012 : Festival international du film de Saint-Sébastien : Prix du public
 2013 : Independent Spirit Awards : Meilleur acteur pour John Hawkes et meilleure actrice dans un second rôle pour Helen Hunt
 2013 : Chlotrudis Awards : Meilleur acteur pour John Hawkes
-2013 : Casting Society of America Awards : Meilleure distribution
-Nominations
-Golden Globes 2013 :
+2013 : Casting Society of America Awards : Meilleure distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Sessions_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Sessions_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Golden Globes 2013 :
 Meilleur acteur dans un film dramatique pour John Hawkes
 Meilleure actrice dans un second rôle pour Helen Hunt
 Oscars 2013 : Meilleure actrice dans un second rôle pour Helen Hunt</t>
